--- a/Analytics/E1/Goalmins_e1.xlsx
+++ b/Analytics/E1/Goalmins_e1.xlsx
@@ -172,7 +172,7 @@
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 30</t>
+    <t>SUM(TGM) / 46</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>7357.0</v>
       </c>
       <c r="D2" t="n">
-        <v>245.23333333333332</v>
+        <v>159.93478260869566</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>7006.0</v>
       </c>
       <c r="D3" t="n">
-        <v>233.53333333333333</v>
+        <v>152.30434782608697</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +846,7 @@
         <v>6852.0</v>
       </c>
       <c r="D4" t="n">
-        <v>228.4</v>
+        <v>148.95652173913044</v>
       </c>
     </row>
     <row r="5">
@@ -860,7 +860,7 @@
         <v>6789.0</v>
       </c>
       <c r="D5" t="n">
-        <v>226.3</v>
+        <v>147.58695652173913</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +874,7 @@
         <v>6684.0</v>
       </c>
       <c r="D6" t="n">
-        <v>222.8</v>
+        <v>145.30434782608697</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>6627.0</v>
       </c>
       <c r="D7" t="n">
-        <v>220.9</v>
+        <v>144.06521739130434</v>
       </c>
     </row>
     <row r="8">
@@ -902,7 +902,7 @@
         <v>6518.0</v>
       </c>
       <c r="D8" t="n">
-        <v>217.26666666666668</v>
+        <v>141.69565217391303</v>
       </c>
     </row>
     <row r="9">
@@ -916,7 +916,7 @@
         <v>6418.0</v>
       </c>
       <c r="D9" t="n">
-        <v>213.93333333333334</v>
+        <v>139.52173913043478</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>6313.0</v>
       </c>
       <c r="D10" t="n">
-        <v>210.43333333333334</v>
+        <v>137.2391304347826</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +944,7 @@
         <v>6303.0</v>
       </c>
       <c r="D11" t="n">
-        <v>210.1</v>
+        <v>137.02173913043478</v>
       </c>
     </row>
     <row r="12">
@@ -958,7 +958,7 @@
         <v>6234.0</v>
       </c>
       <c r="D12" t="n">
-        <v>207.8</v>
+        <v>135.52173913043478</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>6227.0</v>
       </c>
       <c r="D13" t="n">
-        <v>207.56666666666666</v>
+        <v>135.3695652173913</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>6055.0</v>
       </c>
       <c r="D14" t="n">
-        <v>201.83333333333334</v>
+        <v>131.6304347826087</v>
       </c>
     </row>
     <row r="15">
@@ -1000,7 +1000,7 @@
         <v>6004.0</v>
       </c>
       <c r="D15" t="n">
-        <v>200.13333333333333</v>
+        <v>130.52173913043478</v>
       </c>
     </row>
     <row r="16">
@@ -1014,7 +1014,7 @@
         <v>5992.0</v>
       </c>
       <c r="D16" t="n">
-        <v>199.73333333333332</v>
+        <v>130.2608695652174</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1028,7 @@
         <v>5934.0</v>
       </c>
       <c r="D17" t="n">
-        <v>197.8</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="18">
@@ -1042,7 +1042,7 @@
         <v>5850.0</v>
       </c>
       <c r="D18" t="n">
-        <v>195.0</v>
+        <v>127.17391304347827</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1056,7 @@
         <v>5810.0</v>
       </c>
       <c r="D19" t="n">
-        <v>193.66666666666666</v>
+        <v>126.30434782608695</v>
       </c>
     </row>
     <row r="20">
@@ -1070,7 +1070,7 @@
         <v>5629.0</v>
       </c>
       <c r="D20" t="n">
-        <v>187.63333333333333</v>
+        <v>122.3695652173913</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         <v>5461.0</v>
       </c>
       <c r="D21" t="n">
-        <v>182.03333333333333</v>
+        <v>118.71739130434783</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>5421.0</v>
       </c>
       <c r="D22" t="n">
-        <v>180.7</v>
+        <v>117.84782608695652</v>
       </c>
     </row>
     <row r="23">
@@ -1112,7 +1112,7 @@
         <v>5313.0</v>
       </c>
       <c r="D23" t="n">
-        <v>177.1</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1126,7 @@
         <v>5239.0</v>
       </c>
       <c r="D24" t="n">
-        <v>174.63333333333333</v>
+        <v>113.8913043478261</v>
       </c>
     </row>
     <row r="25">
@@ -1140,7 +1140,7 @@
         <v>5118.0</v>
       </c>
       <c r="D25" t="n">
-        <v>170.6</v>
+        <v>111.26086956521739</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/Goalmins_e1.xlsx
+++ b/Analytics/E1/Goalmins_e1.xlsx
@@ -94,76 +94,76 @@
     <t>24</t>
   </si>
   <si>
-    <t>Ipswich</t>
+    <t>Sheffield Weds</t>
   </si>
   <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Leicester</t>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Hull</t>
   </si>
   <si>
     <t>Preston</t>
   </si>
   <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Swansea</t>
   </si>
   <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
+    <t>Sheffield United</t>
   </si>
   <si>
     <t>West Brom</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Millwall</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -240,7 +240,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>4142.0</v>
+        <v>1359.0</v>
       </c>
     </row>
     <row r="3">
@@ -251,7 +251,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>4051.0</v>
+        <v>1336.0</v>
       </c>
     </row>
     <row r="4">
@@ -262,7 +262,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>4009.0</v>
+        <v>1233.0</v>
       </c>
     </row>
     <row r="5">
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>3701.0</v>
+        <v>1078.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>3526.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>3342.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>3335.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>3216.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>3129.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>2993.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>2949.0</v>
+        <v>879.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>2913.0</v>
+        <v>838.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>2808.0</v>
+        <v>802.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>2785.0</v>
+        <v>797.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>2781.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>2780.0</v>
+        <v>715.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>2731.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="19">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>2717.0</v>
+        <v>672.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>2670.0</v>
+        <v>554.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>2664.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>2631.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>2596.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>2590.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="25">
@@ -493,7 +493,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>2518.0</v>
+        <v>181.0</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>3819.0</v>
+        <v>1494.0</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>3707.0</v>
+        <v>1153.0</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>3638.0</v>
+        <v>1082.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>3605.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>3510.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3468.0</v>
+        <v>963.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>3348.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>3340.0</v>
+        <v>913.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>3305.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>3278.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>3270.0</v>
+        <v>868.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>3261.0</v>
+        <v>866.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>3220.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>3217.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>3105.0</v>
+        <v>754.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>2959.0</v>
+        <v>696.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>2830.0</v>
+        <v>693.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>2721.0</v>
+        <v>690.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>2647.0</v>
+        <v>633.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>2532.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>2324.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>2262.0</v>
+        <v>553.0</v>
       </c>
     </row>
     <row r="24">
@@ -768,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>2125.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="25">
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>2086.0</v>
+        <v>330.0</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>7357.0</v>
+        <v>2291.0</v>
       </c>
       <c r="D2" t="n">
-        <v>159.93478260869566</v>
+        <v>49.80434782608695</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>7006.0</v>
+        <v>2225.0</v>
       </c>
       <c r="D3" t="n">
-        <v>152.30434782608697</v>
+        <v>48.369565217391305</v>
       </c>
     </row>
     <row r="4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>6852.0</v>
+        <v>2066.0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.95652173913044</v>
+        <v>44.91304347826087</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>6789.0</v>
+        <v>2029.0</v>
       </c>
       <c r="D5" t="n">
-        <v>147.58695652173913</v>
+        <v>44.108695652173914</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>6684.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D6" t="n">
-        <v>145.30434782608697</v>
+        <v>43.108695652173914</v>
       </c>
     </row>
     <row r="7">
@@ -885,10 +885,10 @@
         <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>6627.0</v>
+        <v>1874.0</v>
       </c>
       <c r="D7" t="n">
-        <v>144.06521739130434</v>
+        <v>40.73913043478261</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>6518.0</v>
+        <v>1866.0</v>
       </c>
       <c r="D8" t="n">
-        <v>141.69565217391303</v>
+        <v>40.56521739130435</v>
       </c>
     </row>
     <row r="9">
@@ -913,10 +913,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>6418.0</v>
+        <v>1797.0</v>
       </c>
       <c r="D9" t="n">
-        <v>139.52173913043478</v>
+        <v>39.06521739130435</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>6313.0</v>
+        <v>1762.0</v>
       </c>
       <c r="D10" t="n">
-        <v>137.2391304347826</v>
+        <v>38.30434782608695</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>6303.0</v>
+        <v>1738.0</v>
       </c>
       <c r="D11" t="n">
-        <v>137.02173913043478</v>
+        <v>37.78260869565217</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>6234.0</v>
+        <v>1707.0</v>
       </c>
       <c r="D12" t="n">
-        <v>135.52173913043478</v>
+        <v>37.108695652173914</v>
       </c>
     </row>
     <row r="13">
@@ -969,10 +969,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>6227.0</v>
+        <v>1659.0</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3695652173913</v>
+        <v>36.06521739130435</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>6055.0</v>
+        <v>1643.0</v>
       </c>
       <c r="D14" t="n">
-        <v>131.6304347826087</v>
+        <v>35.71739130434783</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n">
-        <v>6004.0</v>
+        <v>1610.0</v>
       </c>
       <c r="D15" t="n">
-        <v>130.52173913043478</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5992.0</v>
+        <v>1590.0</v>
       </c>
       <c r="D16" t="n">
-        <v>130.2608695652174</v>
+        <v>34.56521739130435</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>5934.0</v>
+        <v>1573.0</v>
       </c>
       <c r="D17" t="n">
-        <v>129.0</v>
+        <v>34.19565217391305</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>5850.0</v>
+        <v>1550.0</v>
       </c>
       <c r="D18" t="n">
-        <v>127.17391304347827</v>
+        <v>33.69565217391305</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>5810.0</v>
+        <v>1534.0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.30434782608695</v>
+        <v>33.34782608695652</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>5629.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D20" t="n">
-        <v>122.3695652173913</v>
+        <v>30.195652173913043</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>5461.0</v>
+        <v>1306.0</v>
       </c>
       <c r="D21" t="n">
-        <v>118.71739130434783</v>
+        <v>28.391304347826086</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>5421.0</v>
+        <v>1139.0</v>
       </c>
       <c r="D22" t="n">
-        <v>117.84782608695652</v>
+        <v>24.76086956521739</v>
       </c>
     </row>
     <row r="23">
@@ -1106,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>5313.0</v>
+        <v>1075.0</v>
       </c>
       <c r="D23" t="n">
-        <v>115.5</v>
+        <v>23.369565217391305</v>
       </c>
     </row>
     <row r="24">
@@ -1123,10 +1123,10 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>5239.0</v>
+        <v>1049.0</v>
       </c>
       <c r="D24" t="n">
-        <v>113.8913043478261</v>
+        <v>22.804347826086957</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>5118.0</v>
+        <v>819.0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.26086956521739</v>
+        <v>17.804347826086957</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/Goalmins_e1.xlsx
+++ b/Analytics/E1/Goalmins_e1.xlsx
@@ -103,61 +103,61 @@
     <t>Luton</t>
   </si>
   <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
     <t>Norwich</t>
   </si>
   <si>
+    <t>Stoke</t>
+  </si>
+  <si>
     <t>Blackburn</t>
   </si>
   <si>
+    <t>Leeds</t>
+  </si>
+  <si>
     <t>Millwall</t>
   </si>
   <si>
     <t>Bristol City</t>
   </si>
   <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
     <t>Coventry</t>
   </si>
   <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Derby</t>
   </si>
   <si>
     <t>QPR</t>
   </si>
   <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Watford</t>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
   </si>
   <si>
     <t>Oxford</t>
   </si>
   <si>
-    <t>Hull</t>
-  </si>
-  <si>
     <t>Preston</t>
   </si>
   <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
     <t>Swansea</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
   </si>
   <si>
     <t>Sheffield United</t>
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.0</v>
+        <v>1180.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>1072.0</v>
+        <v>1157.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>1020.0</v>
+        <v>1079.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>1020.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>984.0</v>
+        <v>1045.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>977.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>931.0</v>
+        <v>1020.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>879.0</v>
+        <v>1013.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>838.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>802.0</v>
+        <v>851.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>797.0</v>
+        <v>851.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>730.0</v>
+        <v>838.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>715.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>683.0</v>
+        <v>774.0</v>
       </c>
     </row>
     <row r="19">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>672.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>554.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>520.0</v>
+        <v>614.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>489.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>408.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>359.0</v>
+        <v>409.0</v>
       </c>
     </row>
     <row r="25">
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
         <v>1494.0</v>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
         <v>1153.0</v>
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>1082.0</v>
+        <v>1147.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>1072.0</v>
+        <v>1082.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>988.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>963.0</v>
+        <v>1042.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>927.0</v>
+        <v>991.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>913.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>898.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>878.0</v>
+        <v>967.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>868.0</v>
+        <v>951.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>866.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>780.0</v>
+        <v>916.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>780.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>696.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>693.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>690.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>633.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="21">
@@ -735,7 +735,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>613.0</v>
+        <v>655.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>555.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>553.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="24">
@@ -765,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
         <v>458.0</v>
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>330.0</v>
+        <v>424.0</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>2291.0</v>
+        <v>2345.0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.80434782608695</v>
+        <v>50.97826086956522</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +829,10 @@
         <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>2225.0</v>
+        <v>2275.0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.369565217391305</v>
+        <v>49.45652173913044</v>
       </c>
     </row>
     <row r="4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>2066.0</v>
+        <v>2207.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.91304347826087</v>
+        <v>47.97826086956522</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>2029.0</v>
+        <v>2145.0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.108695652173914</v>
+        <v>46.630434782608695</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>1983.0</v>
+        <v>2078.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.108695652173914</v>
+        <v>45.17391304347826</v>
       </c>
     </row>
     <row r="7">
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>1874.0</v>
+        <v>2063.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.73913043478261</v>
+        <v>44.84782608695652</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>1866.0</v>
+        <v>2062.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.56521739130435</v>
+        <v>44.82608695652174</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1797.0</v>
+        <v>1960.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.06521739130435</v>
+        <v>42.608695652173914</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>1762.0</v>
+        <v>1935.0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.30434782608695</v>
+        <v>42.06521739130435</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>1738.0</v>
+        <v>1927.0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.78260869565217</v>
+        <v>41.891304347826086</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>1707.0</v>
+        <v>1923.0</v>
       </c>
       <c r="D12" t="n">
-        <v>37.108695652173914</v>
+        <v>41.80434782608695</v>
       </c>
     </row>
     <row r="13">
@@ -969,10 +969,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>1659.0</v>
+        <v>1891.0</v>
       </c>
       <c r="D13" t="n">
-        <v>36.06521739130435</v>
+        <v>41.108695652173914</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>1643.0</v>
+        <v>1866.0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.71739130434783</v>
+        <v>40.56521739130435</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>1610.0</v>
+        <v>1830.0</v>
       </c>
       <c r="D15" t="n">
-        <v>35.0</v>
+        <v>39.78260869565217</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>1590.0</v>
+        <v>1697.0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.56521739130435</v>
+        <v>36.891304347826086</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>1573.0</v>
+        <v>1692.0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.19565217391305</v>
+        <v>36.78260869565217</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>1550.0</v>
+        <v>1675.0</v>
       </c>
       <c r="D18" t="n">
-        <v>33.69565217391305</v>
+        <v>36.41304347826087</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>1534.0</v>
+        <v>1648.0</v>
       </c>
       <c r="D19" t="n">
-        <v>33.34782608695652</v>
+        <v>35.82608695652174</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>1389.0</v>
+        <v>1503.0</v>
       </c>
       <c r="D20" t="n">
-        <v>30.195652173913043</v>
+        <v>32.67391304347826</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>1306.0</v>
+        <v>1503.0</v>
       </c>
       <c r="D21" t="n">
-        <v>28.391304347826086</v>
+        <v>32.67391304347826</v>
       </c>
     </row>
     <row r="22">
@@ -1095,10 +1095,10 @@
         <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>1139.0</v>
+        <v>1189.0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.76086956521739</v>
+        <v>25.847826086956523</v>
       </c>
     </row>
     <row r="23">
@@ -1109,10 +1109,10 @@
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>1075.0</v>
+        <v>1169.0</v>
       </c>
       <c r="D23" t="n">
-        <v>23.369565217391305</v>
+        <v>25.41304347826087</v>
       </c>
     </row>
     <row r="24">
@@ -1123,10 +1123,10 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>1049.0</v>
+        <v>1118.0</v>
       </c>
       <c r="D24" t="n">
-        <v>22.804347826086957</v>
+        <v>24.304347826086957</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>819.0</v>
+        <v>913.0</v>
       </c>
       <c r="D25" t="n">
-        <v>17.804347826086957</v>
+        <v>19.847826086956523</v>
       </c>
     </row>
   </sheetData>
